--- a/AutomationFramework_Morning/src/test/resources/TestscriptData.xlsx
+++ b/AutomationFramework_Morning/src/test/resources/TestscriptData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gangu\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gangu\git\repository3\AutomationFramework_Morning\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
-    <sheet name="e" sheetId="2" r:id="rId2"/>
-    <sheet name="Shoppingcart" sheetId="3" r:id="rId3"/>
+    <sheet name="books" sheetId="4" r:id="rId2"/>
+    <sheet name="e" sheetId="2" r:id="rId3"/>
+    <sheet name="Shoppingcart" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>email</t>
   </si>
@@ -68,6 +69,9 @@
   </si>
   <si>
     <t>Demo Web Shop. Shopping Cart</t>
+  </si>
+  <si>
+    <t>Demo Web Shop.Books</t>
   </si>
 </sst>
 </file>
@@ -398,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -464,6 +468,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -501,7 +533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
